--- a/data/pca/factorExposure/factorExposure_2019-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1165863256696127</v>
+        <v>-0.07834506323135081</v>
       </c>
       <c r="C2">
-        <v>0.01268218694073227</v>
+        <v>-0.01581361403070763</v>
       </c>
       <c r="D2">
-        <v>0.08660735969460719</v>
+        <v>-0.03245818585911581</v>
       </c>
       <c r="E2">
-        <v>-0.07731244743492476</v>
+        <v>-0.1371618707128944</v>
       </c>
       <c r="F2">
-        <v>0.05681277002390808</v>
+        <v>0.007244015889519995</v>
       </c>
       <c r="G2">
-        <v>-0.04010215500014476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07666796913470847</v>
+      </c>
+      <c r="H2">
+        <v>-0.07799775956733665</v>
+      </c>
+      <c r="I2">
+        <v>0.07933833300205827</v>
+      </c>
+      <c r="J2">
+        <v>0.03844112050010103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2006359586453448</v>
+        <v>-0.1581027422789293</v>
       </c>
       <c r="C3">
-        <v>-0.09292211658201088</v>
+        <v>-0.09942418060031866</v>
       </c>
       <c r="D3">
-        <v>0.1137457278662992</v>
+        <v>0.04946558407237639</v>
       </c>
       <c r="E3">
-        <v>-0.3036207516158718</v>
+        <v>-0.3611189664453456</v>
       </c>
       <c r="F3">
-        <v>-0.02765556336719632</v>
+        <v>0.1164713947149963</v>
       </c>
       <c r="G3">
-        <v>-0.2813615770400437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02217310738883747</v>
+      </c>
+      <c r="H3">
+        <v>-0.2877110299323386</v>
+      </c>
+      <c r="I3">
+        <v>0.1736298449018135</v>
+      </c>
+      <c r="J3">
+        <v>-0.0709845155860081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09276184491887535</v>
+        <v>-0.07262855826390711</v>
       </c>
       <c r="C4">
-        <v>-0.01866568916670044</v>
+        <v>-0.03128101406906004</v>
       </c>
       <c r="D4">
-        <v>0.05023526937623417</v>
+        <v>-0.02170971819244914</v>
       </c>
       <c r="E4">
-        <v>-0.07764430470176729</v>
+        <v>-0.09005961932047864</v>
       </c>
       <c r="F4">
-        <v>0.03513447821419146</v>
+        <v>0.05301512302873983</v>
       </c>
       <c r="G4">
-        <v>-0.02145000121178663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03442266762776811</v>
+      </c>
+      <c r="H4">
+        <v>-0.04082112988287492</v>
+      </c>
+      <c r="I4">
+        <v>0.01656378334890648</v>
+      </c>
+      <c r="J4">
+        <v>-0.04023693859607928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009522214142472623</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004932337456472563</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.002004709253646649</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.007129130551694983</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0008187465283868526</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01364815484189527</v>
+      </c>
+      <c r="H6">
+        <v>-0.001954377240276332</v>
+      </c>
+      <c r="I6">
+        <v>0.001666647557001196</v>
+      </c>
+      <c r="J6">
+        <v>-0.001392579533037084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0407045721549885</v>
+        <v>-0.03398078922893574</v>
       </c>
       <c r="C7">
-        <v>-0.00397505237608461</v>
+        <v>-0.01537816499183813</v>
       </c>
       <c r="D7">
-        <v>0.05872626338398592</v>
+        <v>-0.0161122923092264</v>
       </c>
       <c r="E7">
-        <v>-0.04891674763961713</v>
+        <v>-0.06273759939279382</v>
       </c>
       <c r="F7">
-        <v>-0.05716521042120491</v>
+        <v>0.02698287536725832</v>
       </c>
       <c r="G7">
-        <v>-0.01926977239017892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01810108234429477</v>
+      </c>
+      <c r="H7">
+        <v>-0.04678763121419061</v>
+      </c>
+      <c r="I7">
+        <v>-0.004239560002841865</v>
+      </c>
+      <c r="J7">
+        <v>-0.02673295844336522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03726326213239137</v>
+        <v>-0.0295078318452634</v>
       </c>
       <c r="C8">
-        <v>-0.03547924516988309</v>
+        <v>-0.0369777372945734</v>
       </c>
       <c r="D8">
-        <v>0.03223025340622849</v>
+        <v>-0.006213948209161256</v>
       </c>
       <c r="E8">
-        <v>-0.07004435375561401</v>
+        <v>-0.08180464157995682</v>
       </c>
       <c r="F8">
-        <v>-0.00449689085760059</v>
+        <v>0.04481103415322767</v>
       </c>
       <c r="G8">
-        <v>-0.03619675550858535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004481166068787397</v>
+      </c>
+      <c r="H8">
+        <v>-0.05625522808904226</v>
+      </c>
+      <c r="I8">
+        <v>0.03884080161365682</v>
+      </c>
+      <c r="J8">
+        <v>-0.01783520357908176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08211021976960478</v>
+        <v>-0.06200081743339628</v>
       </c>
       <c r="C9">
-        <v>-0.02018108117325886</v>
+        <v>-0.03071834679325365</v>
       </c>
       <c r="D9">
-        <v>0.05915774685729837</v>
+        <v>-0.02369074730090367</v>
       </c>
       <c r="E9">
-        <v>-0.06538299683445339</v>
+        <v>-0.08501105740195637</v>
       </c>
       <c r="F9">
-        <v>0.01940596331146714</v>
+        <v>0.05740610593596635</v>
       </c>
       <c r="G9">
-        <v>-0.01892692596724128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02274462674567309</v>
+      </c>
+      <c r="H9">
+        <v>-0.03526134028919321</v>
+      </c>
+      <c r="I9">
+        <v>0.009913056364642139</v>
+      </c>
+      <c r="J9">
+        <v>-0.006828661294417974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02183479909713404</v>
+        <v>-0.004750862179560452</v>
       </c>
       <c r="C10">
-        <v>0.1616434256804203</v>
+        <v>0.1569540299328399</v>
       </c>
       <c r="D10">
-        <v>0.01534607733610526</v>
+        <v>0.01904531992297294</v>
       </c>
       <c r="E10">
-        <v>-0.04921103273410306</v>
+        <v>-0.05232929230812983</v>
       </c>
       <c r="F10">
-        <v>-0.005563588420723413</v>
+        <v>0.005837183182100903</v>
       </c>
       <c r="G10">
-        <v>0.02142641162828758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01149481996305548</v>
+      </c>
+      <c r="H10">
+        <v>0.02283024176620157</v>
+      </c>
+      <c r="I10">
+        <v>0.1084540212367563</v>
+      </c>
+      <c r="J10">
+        <v>-0.06182894823337275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05927356607870734</v>
+        <v>-0.05104967763353686</v>
       </c>
       <c r="C11">
-        <v>0.001062349650998551</v>
+        <v>-0.01631551606184495</v>
       </c>
       <c r="D11">
-        <v>0.01359014103440982</v>
+        <v>-0.004157673854048801</v>
       </c>
       <c r="E11">
-        <v>-0.04478825183329008</v>
+        <v>-0.04875656034703556</v>
       </c>
       <c r="F11">
-        <v>-0.003905614106779239</v>
+        <v>0.002624036269942512</v>
       </c>
       <c r="G11">
-        <v>0.0152914963746407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0009035520148589606</v>
+      </c>
+      <c r="H11">
+        <v>-0.02075755089692601</v>
+      </c>
+      <c r="I11">
+        <v>-0.0104927033550157</v>
+      </c>
+      <c r="J11">
+        <v>0.004393182492431581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04940253827728099</v>
+        <v>-0.04907512236193577</v>
       </c>
       <c r="C12">
-        <v>-0.002024278970739711</v>
+        <v>-0.01601765482170818</v>
       </c>
       <c r="D12">
-        <v>0.01118391335187951</v>
+        <v>-0.007752176800924332</v>
       </c>
       <c r="E12">
-        <v>-0.02221058076767305</v>
+        <v>-0.02573066361612589</v>
       </c>
       <c r="F12">
-        <v>-0.009279937088472315</v>
+        <v>0.01829860167058443</v>
       </c>
       <c r="G12">
-        <v>-0.001292531268009105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003155316803900502</v>
+      </c>
+      <c r="H12">
+        <v>-0.009921470404438311</v>
+      </c>
+      <c r="I12">
+        <v>-0.01920286740456746</v>
+      </c>
+      <c r="J12">
+        <v>0.005447592217991946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05545207883062984</v>
+        <v>-0.03849120413078024</v>
       </c>
       <c r="C13">
-        <v>-0.01832949238927617</v>
+        <v>-0.0229494800233317</v>
       </c>
       <c r="D13">
-        <v>0.04220741839133917</v>
+        <v>-0.002561779921077625</v>
       </c>
       <c r="E13">
-        <v>-0.106310075040587</v>
+        <v>-0.1065800219980377</v>
       </c>
       <c r="F13">
-        <v>4.17946324149676e-05</v>
+        <v>0.006442518533643569</v>
       </c>
       <c r="G13">
-        <v>-0.003137042174686349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.001262790987313513</v>
+      </c>
+      <c r="H13">
+        <v>-0.05349614080575777</v>
+      </c>
+      <c r="I13">
+        <v>0.03645241031514299</v>
+      </c>
+      <c r="J13">
+        <v>0.01805664091379691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03758457834927614</v>
+        <v>-0.02831492315169951</v>
       </c>
       <c r="C14">
-        <v>-0.007195569165269512</v>
+        <v>-0.0162029469702443</v>
       </c>
       <c r="D14">
-        <v>0.02675088395139727</v>
+        <v>-0.01981150398692297</v>
       </c>
       <c r="E14">
-        <v>-0.01614040397167122</v>
+        <v>-0.03890382727891104</v>
       </c>
       <c r="F14">
-        <v>-0.006478726238889399</v>
+        <v>0.01917990267060355</v>
       </c>
       <c r="G14">
-        <v>-0.02365098374613273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01262753550825398</v>
+      </c>
+      <c r="H14">
+        <v>-0.0613085192460479</v>
+      </c>
+      <c r="I14">
+        <v>0.02374274746049326</v>
+      </c>
+      <c r="J14">
+        <v>-0.01061508586855051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05191905170384677</v>
+        <v>-0.04300780737384281</v>
       </c>
       <c r="C16">
-        <v>-0.01617259015004209</v>
+        <v>-0.02505815531869689</v>
       </c>
       <c r="D16">
-        <v>0.0005982674315666727</v>
+        <v>0.002284431355438018</v>
       </c>
       <c r="E16">
-        <v>-0.04975785964618587</v>
+        <v>-0.04613558879197582</v>
       </c>
       <c r="F16">
-        <v>-0.004984849539445437</v>
+        <v>0.00648881904424866</v>
       </c>
       <c r="G16">
-        <v>0.003330041857457641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005211530173322766</v>
+      </c>
+      <c r="H16">
+        <v>-0.02116555033482411</v>
+      </c>
+      <c r="I16">
+        <v>-0.01248615452817975</v>
+      </c>
+      <c r="J16">
+        <v>-3.169802633780204e-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.04250048852684706</v>
+        <v>-0.04486850439644662</v>
       </c>
       <c r="C19">
-        <v>-0.03092962936806428</v>
+        <v>-0.03482716187487685</v>
       </c>
       <c r="D19">
-        <v>0.03566530428100533</v>
+        <v>-0.005129593140649196</v>
       </c>
       <c r="E19">
-        <v>-0.07841705681600185</v>
+        <v>-0.0967761334012251</v>
       </c>
       <c r="F19">
-        <v>-0.009751290725971048</v>
+        <v>0.02828145583606929</v>
       </c>
       <c r="G19">
-        <v>-0.01077130288700103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.008415138697901186</v>
+      </c>
+      <c r="H19">
+        <v>-0.07311303719764259</v>
+      </c>
+      <c r="I19">
+        <v>0.07271769909673291</v>
+      </c>
+      <c r="J19">
+        <v>0.005481718526976522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03152548504607252</v>
+        <v>-0.01643782626051487</v>
       </c>
       <c r="C20">
-        <v>-0.03488882504872303</v>
+        <v>-0.03448346055806344</v>
       </c>
       <c r="D20">
-        <v>0.03509124090168983</v>
+        <v>-0.01056979082044907</v>
       </c>
       <c r="E20">
-        <v>-0.06903605984801246</v>
+        <v>-0.07661937564527464</v>
       </c>
       <c r="F20">
-        <v>-0.02012666081691798</v>
+        <v>0.03277591657791565</v>
       </c>
       <c r="G20">
-        <v>-0.03018078753259874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01263498656532679</v>
+      </c>
+      <c r="H20">
+        <v>-0.07733447064510757</v>
+      </c>
+      <c r="I20">
+        <v>0.02306436878185587</v>
+      </c>
+      <c r="J20">
+        <v>-0.02346615232396802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03391208430226902</v>
+        <v>-0.01507313494860788</v>
       </c>
       <c r="C21">
-        <v>-0.01806505328626426</v>
+        <v>-0.02710616278602263</v>
       </c>
       <c r="D21">
-        <v>0.03232332069418214</v>
+        <v>0.01239433116111022</v>
       </c>
       <c r="E21">
-        <v>-0.09116412105086859</v>
+        <v>-0.08502391700287343</v>
       </c>
       <c r="F21">
-        <v>0.02159172488826311</v>
+        <v>0.02417437396423986</v>
       </c>
       <c r="G21">
-        <v>-0.007839031639611523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01235740533496393</v>
+      </c>
+      <c r="H21">
+        <v>-0.04136137171293051</v>
+      </c>
+      <c r="I21">
+        <v>0.01424185687800049</v>
+      </c>
+      <c r="J21">
+        <v>0.02631997444487334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04609078180637409</v>
+        <v>-0.04079012299350283</v>
       </c>
       <c r="C24">
-        <v>-0.01042698798074469</v>
+        <v>-0.01559122822696025</v>
       </c>
       <c r="D24">
-        <v>0.01998901503329258</v>
+        <v>-0.004316404363871445</v>
       </c>
       <c r="E24">
-        <v>-0.05206393282569474</v>
+        <v>-0.04947057719074899</v>
       </c>
       <c r="F24">
-        <v>-0.008735530541729326</v>
+        <v>0.0063949181130367</v>
       </c>
       <c r="G24">
-        <v>0.01097849396727838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01217623587696158</v>
+      </c>
+      <c r="H24">
+        <v>-0.01569968056873149</v>
+      </c>
+      <c r="I24">
+        <v>-0.009869214017720404</v>
+      </c>
+      <c r="J24">
+        <v>-0.001460243619100703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05025280075109499</v>
+        <v>-0.04408414902371314</v>
       </c>
       <c r="C25">
-        <v>0.001859348669690166</v>
+        <v>-0.01613330808720654</v>
       </c>
       <c r="D25">
-        <v>0.01348279968083353</v>
+        <v>-0.003791095132530657</v>
       </c>
       <c r="E25">
-        <v>-0.04072583708998444</v>
+        <v>-0.04703162887625211</v>
       </c>
       <c r="F25">
-        <v>-0.006278287406559839</v>
+        <v>0.009397108075267144</v>
       </c>
       <c r="G25">
-        <v>0.01672909278072615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005939261839374006</v>
+      </c>
+      <c r="H25">
+        <v>-0.008551527622657252</v>
+      </c>
+      <c r="I25">
+        <v>-0.01308907856843119</v>
+      </c>
+      <c r="J25">
+        <v>0.01010369444840922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.00256176026368614</v>
+        <v>-0.006895704177122853</v>
       </c>
       <c r="C26">
-        <v>-0.01960231465917049</v>
+        <v>-0.02029050616091472</v>
       </c>
       <c r="D26">
-        <v>0.02826508850686481</v>
+        <v>0.004914665590166397</v>
       </c>
       <c r="E26">
-        <v>-0.04797276418312563</v>
+        <v>-0.05841370250589084</v>
       </c>
       <c r="F26">
-        <v>0.006708461984767615</v>
+        <v>-0.002923695411342891</v>
       </c>
       <c r="G26">
-        <v>-0.008975193261603471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.003233379004216655</v>
+      </c>
+      <c r="H26">
+        <v>-0.03502447943410054</v>
+      </c>
+      <c r="I26">
+        <v>-0.002056669990170756</v>
+      </c>
+      <c r="J26">
+        <v>-0.009605479091290536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1083441368091705</v>
+        <v>-0.08920131566403089</v>
       </c>
       <c r="C27">
-        <v>-0.003897357955285665</v>
+        <v>-0.01642844310597575</v>
       </c>
       <c r="D27">
-        <v>0.06771806374047591</v>
+        <v>-0.02737187903424244</v>
       </c>
       <c r="E27">
-        <v>-0.09796773327793085</v>
+        <v>-0.09108147078650893</v>
       </c>
       <c r="F27">
-        <v>-0.009352686282315264</v>
+        <v>0.04285039011510668</v>
       </c>
       <c r="G27">
-        <v>0.0192899631009786</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.002688015202225224</v>
+      </c>
+      <c r="H27">
+        <v>-0.0105591895683774</v>
+      </c>
+      <c r="I27">
+        <v>-0.0003422102914768753</v>
+      </c>
+      <c r="J27">
+        <v>-0.01712328259005918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02629457741174316</v>
+        <v>-0.01151883553990541</v>
       </c>
       <c r="C28">
-        <v>0.2323015024642693</v>
+        <v>0.2242310713820965</v>
       </c>
       <c r="D28">
-        <v>-0.002910582644987725</v>
+        <v>0.02714024119922829</v>
       </c>
       <c r="E28">
-        <v>-0.04022594895006352</v>
+        <v>-0.04066719159026404</v>
       </c>
       <c r="F28">
-        <v>0.0003464974810070951</v>
+        <v>0.00309871736102799</v>
       </c>
       <c r="G28">
-        <v>0.04184428044941998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01500987332671904</v>
+      </c>
+      <c r="H28">
+        <v>0.04554506973373747</v>
+      </c>
+      <c r="I28">
+        <v>0.1427167692128717</v>
+      </c>
+      <c r="J28">
+        <v>-0.09114707955235983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0179787372889064</v>
+        <v>-0.01901855714126646</v>
       </c>
       <c r="C29">
-        <v>-0.01949139818300414</v>
+        <v>-0.02286737614118864</v>
       </c>
       <c r="D29">
-        <v>0.0302984987140371</v>
+        <v>-0.01564335805405379</v>
       </c>
       <c r="E29">
-        <v>-0.03101343230911183</v>
+        <v>-0.03876357508597753</v>
       </c>
       <c r="F29">
-        <v>0.002843052462541482</v>
+        <v>0.02921734833746174</v>
       </c>
       <c r="G29">
-        <v>-0.02985554798202119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01670666875730901</v>
+      </c>
+      <c r="H29">
+        <v>-0.05918483372010398</v>
+      </c>
+      <c r="I29">
+        <v>0.01121654921112304</v>
+      </c>
+      <c r="J29">
+        <v>-0.01461746192005668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1034778098725986</v>
+        <v>-0.102891819667357</v>
       </c>
       <c r="C30">
-        <v>0.001851128501090358</v>
+        <v>-0.02653808995667123</v>
       </c>
       <c r="D30">
-        <v>0.0625452396493439</v>
+        <v>-0.02890190575349539</v>
       </c>
       <c r="E30">
-        <v>-0.1088768553171924</v>
+        <v>-0.113776127693634</v>
       </c>
       <c r="F30">
-        <v>-0.01380302294308159</v>
+        <v>0.01041188672666331</v>
       </c>
       <c r="G30">
-        <v>0.08341642945878847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02513331813957794</v>
+      </c>
+      <c r="H30">
+        <v>-0.009876526858884347</v>
+      </c>
+      <c r="I30">
+        <v>-0.02938438232987954</v>
+      </c>
+      <c r="J30">
+        <v>0.02501083255944091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05210085695554512</v>
+        <v>-0.0569514797881686</v>
       </c>
       <c r="C31">
-        <v>-0.01146257772532589</v>
+        <v>-0.01703750890908452</v>
       </c>
       <c r="D31">
-        <v>0.01723380528964243</v>
+        <v>-0.01480726324407203</v>
       </c>
       <c r="E31">
-        <v>0.007962454873314862</v>
+        <v>-0.01920792013554458</v>
       </c>
       <c r="F31">
-        <v>0.008519189428017901</v>
+        <v>-0.0180715903004938</v>
       </c>
       <c r="G31">
-        <v>-0.01620964277147019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03347436027752855</v>
+      </c>
+      <c r="H31">
+        <v>-0.04852880546875207</v>
+      </c>
+      <c r="I31">
+        <v>0.01634102618089746</v>
+      </c>
+      <c r="J31">
+        <v>-0.01794128285318179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06371372804642095</v>
+        <v>-0.04592007304885561</v>
       </c>
       <c r="C32">
-        <v>-0.02211266431467316</v>
+        <v>-0.0443528437771343</v>
       </c>
       <c r="D32">
-        <v>0.05583733437746293</v>
+        <v>-0.01841243443653203</v>
       </c>
       <c r="E32">
-        <v>-0.1038602449596023</v>
+        <v>-0.09729600795830495</v>
       </c>
       <c r="F32">
-        <v>-0.03718023302057936</v>
+        <v>0.03479587205052683</v>
       </c>
       <c r="G32">
-        <v>0.01108656450423284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01999934435147683</v>
+      </c>
+      <c r="H32">
+        <v>-0.05299017281140373</v>
+      </c>
+      <c r="I32">
+        <v>0.03458986643825441</v>
+      </c>
+      <c r="J32">
+        <v>0.02456577754603889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06438414904826191</v>
+        <v>-0.0579625612649917</v>
       </c>
       <c r="C33">
-        <v>-0.02529053658238293</v>
+        <v>-0.0415199754774417</v>
       </c>
       <c r="D33">
-        <v>0.04463655112061219</v>
+        <v>-0.003051202264059371</v>
       </c>
       <c r="E33">
-        <v>-0.06419064027226676</v>
+        <v>-0.08972742335464401</v>
       </c>
       <c r="F33">
-        <v>0.01603621983684649</v>
+        <v>0.009392226848689369</v>
       </c>
       <c r="G33">
-        <v>-0.000138612034633096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01221476239708794</v>
+      </c>
+      <c r="H33">
+        <v>-0.05119142369944881</v>
+      </c>
+      <c r="I33">
+        <v>-0.008936158445711559</v>
+      </c>
+      <c r="J33">
+        <v>0.003552246010268246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0451623218645404</v>
+        <v>-0.04229778934093392</v>
       </c>
       <c r="C34">
-        <v>-0.01205673435655789</v>
+        <v>-0.02147382149900306</v>
       </c>
       <c r="D34">
-        <v>0.004562367982703734</v>
+        <v>-0.007660708389476484</v>
       </c>
       <c r="E34">
-        <v>-0.02781583596813229</v>
+        <v>-0.03913931435654286</v>
       </c>
       <c r="F34">
-        <v>-0.007223802722089501</v>
+        <v>0.008300287627184761</v>
       </c>
       <c r="G34">
-        <v>-0.004697384155429809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.002655128965186792</v>
+      </c>
+      <c r="H34">
+        <v>-0.02512436088484281</v>
+      </c>
+      <c r="I34">
+        <v>-0.004483861736644531</v>
+      </c>
+      <c r="J34">
+        <v>0.01383603961560636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.008279092825867728</v>
+        <v>-0.01184574550709399</v>
       </c>
       <c r="C36">
-        <v>0.006498778895434453</v>
+        <v>-0.001792095440306051</v>
       </c>
       <c r="D36">
-        <v>0.01519811250491912</v>
+        <v>-0.004385884924037953</v>
       </c>
       <c r="E36">
-        <v>-0.02575446097607661</v>
+        <v>-0.03121842121093592</v>
       </c>
       <c r="F36">
-        <v>0.002283790437985188</v>
+        <v>0.01063910776243171</v>
       </c>
       <c r="G36">
-        <v>0.006319114745705363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.009980323466317309</v>
+      </c>
+      <c r="H36">
+        <v>-0.03518002929982375</v>
+      </c>
+      <c r="I36">
+        <v>0.01475594380339832</v>
+      </c>
+      <c r="J36">
+        <v>0.006334776990107733</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05091372458456456</v>
+        <v>-0.02901279656538525</v>
       </c>
       <c r="C38">
-        <v>-0.005318530982224649</v>
+        <v>-0.01084365950933527</v>
       </c>
       <c r="D38">
-        <v>0.03465332504581577</v>
+        <v>-0.006533287416305301</v>
       </c>
       <c r="E38">
-        <v>-0.02251514858074296</v>
+        <v>-0.0469306872177612</v>
       </c>
       <c r="F38">
-        <v>0.001370590458242042</v>
+        <v>0.01896389076236866</v>
       </c>
       <c r="G38">
-        <v>-0.01139854048788175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01603600677502398</v>
+      </c>
+      <c r="H38">
+        <v>-0.01007930811274555</v>
+      </c>
+      <c r="I38">
+        <v>0.008482058253590491</v>
+      </c>
+      <c r="J38">
+        <v>0.0144063726086878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.0755326852034633</v>
+        <v>-0.06333337914042189</v>
       </c>
       <c r="C39">
-        <v>-0.008289298627504389</v>
+        <v>-0.02805848600616346</v>
       </c>
       <c r="D39">
-        <v>0.02280915845584181</v>
+        <v>-0.01863580269568883</v>
       </c>
       <c r="E39">
-        <v>-0.04171056567567719</v>
+        <v>-0.06036738636828776</v>
       </c>
       <c r="F39">
-        <v>0.007023655059214968</v>
+        <v>-0.000591349287534676</v>
       </c>
       <c r="G39">
-        <v>0.01978252249386324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.004151530211466687</v>
+      </c>
+      <c r="H39">
+        <v>-0.02066527844263678</v>
+      </c>
+      <c r="I39">
+        <v>-0.01999036225957798</v>
+      </c>
+      <c r="J39">
+        <v>0.02189347883701669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06789964799291166</v>
+        <v>-0.0550521786620654</v>
       </c>
       <c r="C40">
-        <v>-0.02899566651151798</v>
+        <v>-0.03451593865100851</v>
       </c>
       <c r="D40">
-        <v>0.05410388306893624</v>
+        <v>-0.01926942094771768</v>
       </c>
       <c r="E40">
-        <v>-0.1026894069059676</v>
+        <v>-0.1135015830431164</v>
       </c>
       <c r="F40">
-        <v>0.006250492116102758</v>
+        <v>-0.000736171199481047</v>
       </c>
       <c r="G40">
-        <v>-0.03751263588954469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.007573893853203726</v>
+      </c>
+      <c r="H40">
+        <v>-0.0781486981198169</v>
+      </c>
+      <c r="I40">
+        <v>0.02894302116167956</v>
+      </c>
+      <c r="J40">
+        <v>0.004780744176243789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002784720977523736</v>
+        <v>-0.0002645171135577128</v>
       </c>
       <c r="C41">
-        <v>-0.005846803818005001</v>
+        <v>-0.008880298821678796</v>
       </c>
       <c r="D41">
-        <v>0.02182602043611637</v>
+        <v>-0.003795636878875669</v>
       </c>
       <c r="E41">
-        <v>-0.01244724264353258</v>
+        <v>-0.01828883369108153</v>
       </c>
       <c r="F41">
-        <v>0.02230830647870844</v>
+        <v>0.007432252277736517</v>
       </c>
       <c r="G41">
-        <v>-0.02036509089813608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02837944968434847</v>
+      </c>
+      <c r="H41">
+        <v>-0.0389357098436816</v>
+      </c>
+      <c r="I41">
+        <v>0.01487819160070498</v>
+      </c>
+      <c r="J41">
+        <v>-0.0275367929304626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1660837524127962</v>
+        <v>-0.2421772378354093</v>
       </c>
       <c r="C42">
-        <v>-0.1460370155102633</v>
+        <v>-0.1545132845469942</v>
       </c>
       <c r="D42">
-        <v>-0.8490757686863561</v>
+        <v>0.9130984177160775</v>
       </c>
       <c r="E42">
-        <v>-0.3963980754421789</v>
+        <v>0.1369537628456704</v>
       </c>
       <c r="F42">
-        <v>0.09712143769421235</v>
+        <v>-0.1838523439219077</v>
       </c>
       <c r="G42">
-        <v>0.08458818654875196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.00702123007944951</v>
+      </c>
+      <c r="H42">
+        <v>0.01361995398341648</v>
+      </c>
+      <c r="I42">
+        <v>0.03093141409813804</v>
+      </c>
+      <c r="J42">
+        <v>-0.0435326036885147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008115067423272612</v>
+        <v>-0.000447189240501523</v>
       </c>
       <c r="C43">
-        <v>-0.009581657393572147</v>
+        <v>-0.01391451489356718</v>
       </c>
       <c r="D43">
-        <v>0.03284730744775875</v>
+        <v>-0.005446040919247584</v>
       </c>
       <c r="E43">
-        <v>-0.02546347852133476</v>
+        <v>-0.03240007610918314</v>
       </c>
       <c r="F43">
-        <v>-0.009427943895202859</v>
+        <v>0.005013248411168327</v>
       </c>
       <c r="G43">
-        <v>-0.02059555863663649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006574097865289641</v>
+      </c>
+      <c r="H43">
+        <v>-0.03526842838253665</v>
+      </c>
+      <c r="I43">
+        <v>0.007460446411831583</v>
+      </c>
+      <c r="J43">
+        <v>-0.02042603296484677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04235857459693973</v>
+        <v>-0.02852019777317131</v>
       </c>
       <c r="C44">
-        <v>-0.02960138504911586</v>
+        <v>-0.03429130839457014</v>
       </c>
       <c r="D44">
-        <v>0.06248045219337657</v>
+        <v>0.0005299087691278212</v>
       </c>
       <c r="E44">
-        <v>-0.09659156481868468</v>
+        <v>-0.1218341599127647</v>
       </c>
       <c r="F44">
-        <v>0.03801430733847554</v>
+        <v>0.02886291498094361</v>
       </c>
       <c r="G44">
-        <v>-0.07633400197861719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02769279550135985</v>
+      </c>
+      <c r="H44">
+        <v>-0.1110953093184751</v>
+      </c>
+      <c r="I44">
+        <v>0.04188950710463745</v>
+      </c>
+      <c r="J44">
+        <v>-0.006431336542067686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02033740651255563</v>
+        <v>-0.01966347343274683</v>
       </c>
       <c r="C46">
-        <v>-0.01536268547210226</v>
+        <v>-0.02717410387157291</v>
       </c>
       <c r="D46">
-        <v>0.03805545386430623</v>
+        <v>-0.0159513002780529</v>
       </c>
       <c r="E46">
-        <v>-0.01743595531617761</v>
+        <v>-0.04975530894612765</v>
       </c>
       <c r="F46">
-        <v>0.01867709427827359</v>
+        <v>0.01234480637426789</v>
       </c>
       <c r="G46">
-        <v>-0.02473107831606698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01704676835541846</v>
+      </c>
+      <c r="H46">
+        <v>-0.06128817989977036</v>
+      </c>
+      <c r="I46">
+        <v>0.009444564788958595</v>
+      </c>
+      <c r="J46">
+        <v>-0.03165328595111115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07759862434559583</v>
+        <v>-0.08645812162013358</v>
       </c>
       <c r="C47">
-        <v>-0.004365514377600288</v>
+        <v>-0.01450851948993616</v>
       </c>
       <c r="D47">
-        <v>0.01877972780491485</v>
+        <v>-0.02092434708496268</v>
       </c>
       <c r="E47">
-        <v>0.008559465944086905</v>
+        <v>-0.006758924601983806</v>
       </c>
       <c r="F47">
-        <v>0.003500426939529475</v>
+        <v>-0.002253960892494697</v>
       </c>
       <c r="G47">
-        <v>-0.03440272415776399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02758613468090139</v>
+      </c>
+      <c r="H47">
+        <v>-0.07129433251129412</v>
+      </c>
+      <c r="I47">
+        <v>0.02079148679463496</v>
+      </c>
+      <c r="J47">
+        <v>-0.02557004711897735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.00985679074391731</v>
+        <v>-0.01273635277662605</v>
       </c>
       <c r="C48">
-        <v>-0.01677928635460367</v>
+        <v>-0.01970581300043888</v>
       </c>
       <c r="D48">
-        <v>0.0258607232090533</v>
+        <v>-0.004136653105269767</v>
       </c>
       <c r="E48">
-        <v>-0.03080574376255349</v>
+        <v>-0.04159704220035299</v>
       </c>
       <c r="F48">
-        <v>0.005709887589292088</v>
+        <v>0.01080106529297061</v>
       </c>
       <c r="G48">
-        <v>-2.151908786680833e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002891880452664482</v>
+      </c>
+      <c r="H48">
+        <v>-0.02406007907517625</v>
+      </c>
+      <c r="I48">
+        <v>0.01136991352763009</v>
+      </c>
+      <c r="J48">
+        <v>-0.01138636145118852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07301255080348944</v>
+        <v>-0.0792126349707228</v>
       </c>
       <c r="C50">
-        <v>-0.03289786747895616</v>
+        <v>-0.03565213825426052</v>
       </c>
       <c r="D50">
-        <v>0.01128115430675218</v>
+        <v>-0.01708209084679399</v>
       </c>
       <c r="E50">
-        <v>0.01556102163364816</v>
+        <v>-0.01290915284746054</v>
       </c>
       <c r="F50">
-        <v>0.01045168410013262</v>
+        <v>-0.004880767789946503</v>
       </c>
       <c r="G50">
-        <v>-0.004277661625130333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006565571510878793</v>
+      </c>
+      <c r="H50">
+        <v>-0.05134982039629529</v>
+      </c>
+      <c r="I50">
+        <v>0.02205551383247535</v>
+      </c>
+      <c r="J50">
+        <v>0.007373953371214235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06586627322710378</v>
+        <v>-0.04682814942691339</v>
       </c>
       <c r="C51">
-        <v>0.03056809697325968</v>
+        <v>0.008584026420376603</v>
       </c>
       <c r="D51">
-        <v>0.05471625334711304</v>
+        <v>-0.004843847021927313</v>
       </c>
       <c r="E51">
-        <v>-0.06275460972120568</v>
+        <v>-0.1058403106320259</v>
       </c>
       <c r="F51">
-        <v>0.04390032848031818</v>
+        <v>0.002372789806047593</v>
       </c>
       <c r="G51">
-        <v>-0.01418805469742449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04785029774905335</v>
+      </c>
+      <c r="H51">
+        <v>-0.05192879019848118</v>
+      </c>
+      <c r="I51">
+        <v>0.02762638791214778</v>
+      </c>
+      <c r="J51">
+        <v>-0.05798498737195373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1393392304679008</v>
+        <v>-0.1278081846439135</v>
       </c>
       <c r="C53">
-        <v>-0.006190093694483726</v>
+        <v>-0.03275637750071235</v>
       </c>
       <c r="D53">
-        <v>0.04092684934147068</v>
+        <v>-0.04609141842446962</v>
       </c>
       <c r="E53">
-        <v>0.02071246990760944</v>
+        <v>0.01343542472399227</v>
       </c>
       <c r="F53">
-        <v>0.00960119393408539</v>
+        <v>-0.007288160123215039</v>
       </c>
       <c r="G53">
-        <v>-0.02922777895931787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02949890633067134</v>
+      </c>
+      <c r="H53">
+        <v>-0.01347283286338457</v>
+      </c>
+      <c r="I53">
+        <v>-0.01100605045659776</v>
+      </c>
+      <c r="J53">
+        <v>-0.0877060137381545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.01849921371978507</v>
+        <v>-0.02055545800813157</v>
       </c>
       <c r="C54">
-        <v>0.007033897530104763</v>
+        <v>-0.004274787021546837</v>
       </c>
       <c r="D54">
-        <v>0.04517479644978453</v>
+        <v>-0.02224192221560991</v>
       </c>
       <c r="E54">
-        <v>-0.02607520931220029</v>
+        <v>-0.04645515049719696</v>
       </c>
       <c r="F54">
-        <v>0.02962197409508882</v>
+        <v>0.02148789930183951</v>
       </c>
       <c r="G54">
-        <v>-0.03177630624429714</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03042936663360027</v>
+      </c>
+      <c r="H54">
+        <v>-0.06779407960731364</v>
+      </c>
+      <c r="I54">
+        <v>0.04269477271289512</v>
+      </c>
+      <c r="J54">
+        <v>-0.02484073046397919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09596460902797875</v>
+        <v>-0.1019065150092288</v>
       </c>
       <c r="C55">
-        <v>0.0052197729240662</v>
+        <v>-0.01576596476793159</v>
       </c>
       <c r="D55">
-        <v>0.03638614520302168</v>
+        <v>-0.02971478952762181</v>
       </c>
       <c r="E55">
-        <v>0.003151270221008386</v>
+        <v>0.01425483778778547</v>
       </c>
       <c r="F55">
-        <v>-0.0215991275397338</v>
+        <v>0.03179300511174227</v>
       </c>
       <c r="G55">
-        <v>-0.03154723017815027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.004785259251468056</v>
+      </c>
+      <c r="H55">
+        <v>-0.03264383186648587</v>
+      </c>
+      <c r="I55">
+        <v>-0.022790133368998</v>
+      </c>
+      <c r="J55">
+        <v>-0.06967436338285397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1774535757613322</v>
+        <v>-0.1696168325959585</v>
       </c>
       <c r="C56">
-        <v>0.02594839307493456</v>
+        <v>-0.009652580056008215</v>
       </c>
       <c r="D56">
-        <v>0.04829098254330921</v>
+        <v>-0.08987471945166138</v>
       </c>
       <c r="E56">
-        <v>0.07801735391219017</v>
+        <v>0.06665009024637154</v>
       </c>
       <c r="F56">
-        <v>-0.04710554444161085</v>
+        <v>0.004791548611913816</v>
       </c>
       <c r="G56">
-        <v>-0.02551369682859826</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01413882210365409</v>
+      </c>
+      <c r="H56">
+        <v>0.03212461069802814</v>
+      </c>
+      <c r="I56">
+        <v>-0.0543640394581726</v>
+      </c>
+      <c r="J56">
+        <v>-0.0792078726979094</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09593530422564939</v>
+        <v>-0.07510784209052124</v>
       </c>
       <c r="C57">
-        <v>-0.01871211032423788</v>
+        <v>-0.02243552402475488</v>
       </c>
       <c r="D57">
-        <v>0.04783865106397679</v>
+        <v>-0.004002493542175536</v>
       </c>
       <c r="E57">
-        <v>-0.06533244251465245</v>
+        <v>-0.08481071142379443</v>
       </c>
       <c r="F57">
-        <v>-0.007593876119967356</v>
+        <v>0.009609658403900765</v>
       </c>
       <c r="G57">
-        <v>-0.03443860666731501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0059191254268031</v>
+      </c>
+      <c r="H57">
+        <v>-0.05321457741183944</v>
+      </c>
+      <c r="I57">
+        <v>-0.011095574261136</v>
+      </c>
+      <c r="J57">
+        <v>-0.01831032368199075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1733720184499314</v>
+        <v>-0.193853309269041</v>
       </c>
       <c r="C58">
-        <v>0.01152106087928577</v>
+        <v>-0.03825474184643784</v>
       </c>
       <c r="D58">
-        <v>-0.006167271233065878</v>
+        <v>0.00438538488447205</v>
       </c>
       <c r="E58">
-        <v>-0.070592134337559</v>
+        <v>-0.1411161574689025</v>
       </c>
       <c r="F58">
-        <v>-0.07781832543111857</v>
+        <v>-0.01122843428489057</v>
       </c>
       <c r="G58">
-        <v>-0.1335635161365147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1514559819338017</v>
+      </c>
+      <c r="H58">
+        <v>-0.287959867488062</v>
+      </c>
+      <c r="I58">
+        <v>0.1192197965756033</v>
+      </c>
+      <c r="J58">
+        <v>0.1892357485863056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01643257576918135</v>
+        <v>-0.01789476879442634</v>
       </c>
       <c r="C59">
-        <v>0.2010014170303011</v>
+        <v>0.1956972649716252</v>
       </c>
       <c r="D59">
-        <v>0.03604022217353144</v>
+        <v>-0.008706573751944377</v>
       </c>
       <c r="E59">
-        <v>-0.03616155963068946</v>
+        <v>-0.05544935261685851</v>
       </c>
       <c r="F59">
-        <v>-0.00494452849399014</v>
+        <v>-0.01111301695063826</v>
       </c>
       <c r="G59">
-        <v>0.05208263270973552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0008347881751297712</v>
+      </c>
+      <c r="H59">
+        <v>0.0381841374017093</v>
+      </c>
+      <c r="I59">
+        <v>0.07784160031938459</v>
+      </c>
+      <c r="J59">
+        <v>-0.03777272116849014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1683751017068504</v>
+        <v>-0.1765207833083743</v>
       </c>
       <c r="C60">
-        <v>0.1212212544580767</v>
+        <v>0.06736518660951227</v>
       </c>
       <c r="D60">
-        <v>0.1169654935468965</v>
+        <v>-0.01604150592987602</v>
       </c>
       <c r="E60">
-        <v>-0.1544442506188904</v>
+        <v>-0.2113732715407592</v>
       </c>
       <c r="F60">
-        <v>-0.0003648619613983686</v>
+        <v>-0.04250577271491329</v>
       </c>
       <c r="G60">
-        <v>0.1403834708539704</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05885222114640098</v>
+      </c>
+      <c r="H60">
+        <v>0.2232684811605635</v>
+      </c>
+      <c r="I60">
+        <v>-0.106014385905826</v>
+      </c>
+      <c r="J60">
+        <v>0.04612096685288165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05039614213747506</v>
+        <v>-0.03990847875174119</v>
       </c>
       <c r="C61">
-        <v>-0.002466517637528726</v>
+        <v>-0.01491612246859895</v>
       </c>
       <c r="D61">
-        <v>0.01385417123493997</v>
+        <v>-0.001064582506841602</v>
       </c>
       <c r="E61">
-        <v>-0.04055520039893172</v>
+        <v>-0.04570380517166329</v>
       </c>
       <c r="F61">
-        <v>0.003992790342021292</v>
+        <v>0.0008919711540937161</v>
       </c>
       <c r="G61">
-        <v>0.04068923576462025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0001262234889376063</v>
+      </c>
+      <c r="H61">
+        <v>-0.003794042439308265</v>
+      </c>
+      <c r="I61">
+        <v>-0.02346085463029064</v>
+      </c>
+      <c r="J61">
+        <v>0.03234203543020726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0334660989771634</v>
+        <v>-0.02715077290387225</v>
       </c>
       <c r="C63">
-        <v>0.007543924762926882</v>
+        <v>-0.01291471455812197</v>
       </c>
       <c r="D63">
-        <v>0.02437608269711225</v>
+        <v>-0.008683554513521725</v>
       </c>
       <c r="E63">
-        <v>-0.03964250805243387</v>
+        <v>-0.03818706001911259</v>
       </c>
       <c r="F63">
-        <v>0.001376534210946466</v>
+        <v>0.01011888900055206</v>
       </c>
       <c r="G63">
-        <v>-0.013835595982777</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0015830465339402</v>
+      </c>
+      <c r="H63">
+        <v>-0.04218088727842945</v>
+      </c>
+      <c r="I63">
+        <v>0.0157412187945941</v>
+      </c>
+      <c r="J63">
+        <v>-0.04051736575380323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09317673504463765</v>
+        <v>-0.06808029924681133</v>
       </c>
       <c r="C64">
-        <v>-0.002917852746134333</v>
+        <v>-0.02652557605133264</v>
       </c>
       <c r="D64">
-        <v>0.1136277725251003</v>
+        <v>-0.03711941392553193</v>
       </c>
       <c r="E64">
-        <v>-0.05268688819715894</v>
+        <v>-0.06744398226080001</v>
       </c>
       <c r="F64">
-        <v>0.07531765673908138</v>
+        <v>0.06046556617216145</v>
       </c>
       <c r="G64">
-        <v>0.03030440181749648</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06728257614341285</v>
+      </c>
+      <c r="H64">
+        <v>0.007679242146849546</v>
+      </c>
+      <c r="I64">
+        <v>-0.01916892182005054</v>
+      </c>
+      <c r="J64">
+        <v>-0.06647535284932442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01000326105562253</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.005309817753710519</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.002302801553283898</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005628363561177831</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002521909974743284</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01390091094376165</v>
+      </c>
+      <c r="H65">
+        <v>0.0005663176919068513</v>
+      </c>
+      <c r="I65">
+        <v>-0.0003132320358588507</v>
+      </c>
+      <c r="J65">
+        <v>-0.0005947727031876303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09999482197369053</v>
+        <v>-0.07634330259570044</v>
       </c>
       <c r="C66">
-        <v>-0.01120161175458076</v>
+        <v>-0.03556008691746589</v>
       </c>
       <c r="D66">
-        <v>0.07823366834177686</v>
+        <v>-0.03979875121703341</v>
       </c>
       <c r="E66">
-        <v>-0.05609150517824252</v>
+        <v>-0.08753220609562953</v>
       </c>
       <c r="F66">
-        <v>0.008136429469376144</v>
+        <v>0.002418067274795084</v>
       </c>
       <c r="G66">
-        <v>0.01996907842383587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.003988397249087846</v>
+      </c>
+      <c r="H66">
+        <v>-0.02191475549188948</v>
+      </c>
+      <c r="I66">
+        <v>-0.04181267461562158</v>
+      </c>
+      <c r="J66">
+        <v>0.01562676770175429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05706409784921413</v>
+        <v>-0.03950632711792432</v>
       </c>
       <c r="C67">
-        <v>0.01562703048763499</v>
+        <v>0.007479801232228629</v>
       </c>
       <c r="D67">
-        <v>0.02358650256897031</v>
+        <v>-0.003398614425743841</v>
       </c>
       <c r="E67">
-        <v>-0.02179777750929916</v>
+        <v>-0.04070594140130412</v>
       </c>
       <c r="F67">
-        <v>-6.149321722383171e-05</v>
+        <v>0.007350569186921353</v>
       </c>
       <c r="G67">
-        <v>-0.01821144934301275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02252971172241135</v>
+      </c>
+      <c r="H67">
+        <v>0.0004673504089543333</v>
+      </c>
+      <c r="I67">
+        <v>-0.02946296696850362</v>
+      </c>
+      <c r="J67">
+        <v>0.0210727963239242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01294853750439607</v>
+        <v>-0.02710492264715061</v>
       </c>
       <c r="C68">
-        <v>0.2474062487605271</v>
+        <v>0.2372742425877382</v>
       </c>
       <c r="D68">
-        <v>0.01358515351086814</v>
+        <v>0.001135898957165804</v>
       </c>
       <c r="E68">
-        <v>-0.03747061374309824</v>
+        <v>-0.03950232126763777</v>
       </c>
       <c r="F68">
-        <v>-0.01725452878099871</v>
+        <v>0.003485998783770096</v>
       </c>
       <c r="G68">
-        <v>0.03961443626152458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01254616613831983</v>
+      </c>
+      <c r="H68">
+        <v>0.04255768685561977</v>
+      </c>
+      <c r="I68">
+        <v>0.1520460400604012</v>
+      </c>
+      <c r="J68">
+        <v>-0.08638935552522636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06377008173093734</v>
+        <v>-0.06781941220465504</v>
       </c>
       <c r="C69">
-        <v>-0.006312289978575344</v>
+        <v>-0.01112895411796942</v>
       </c>
       <c r="D69">
-        <v>0.02638733022312221</v>
+        <v>-0.02645242447687083</v>
       </c>
       <c r="E69">
-        <v>0.01164239371638851</v>
+        <v>-0.01256677418273803</v>
       </c>
       <c r="F69">
-        <v>-0.005523269879260472</v>
+        <v>-0.00683740168481077</v>
       </c>
       <c r="G69">
-        <v>0.003220718299971061</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01817218090273717</v>
+      </c>
+      <c r="H69">
+        <v>-0.05017079270424779</v>
+      </c>
+      <c r="I69">
+        <v>0.001013497544162153</v>
+      </c>
+      <c r="J69">
+        <v>-0.006404616100843414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01015149389374221</v>
+        <v>-0.03122163160070581</v>
       </c>
       <c r="C71">
-        <v>0.2201739100248752</v>
+        <v>0.2261552577666261</v>
       </c>
       <c r="D71">
-        <v>0.01861388348605958</v>
+        <v>0.02202045225218034</v>
       </c>
       <c r="E71">
-        <v>-0.05529834377273095</v>
+        <v>-0.05784993229012939</v>
       </c>
       <c r="F71">
-        <v>-0.01622607448175388</v>
+        <v>-0.02356457421972823</v>
       </c>
       <c r="G71">
-        <v>0.1535313856183806</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.003255389702471702</v>
+      </c>
+      <c r="H71">
+        <v>0.06009785359126482</v>
+      </c>
+      <c r="I71">
+        <v>0.1588577440687675</v>
+      </c>
+      <c r="J71">
+        <v>-0.02317970541902611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1013249650722238</v>
+        <v>-0.11189873632126</v>
       </c>
       <c r="C72">
-        <v>0.02468613730644977</v>
+        <v>0.01075383733013206</v>
       </c>
       <c r="D72">
-        <v>0.07246930925244732</v>
+        <v>-0.05946002762276392</v>
       </c>
       <c r="E72">
-        <v>-0.03943762273337464</v>
+        <v>-0.0846482249235609</v>
       </c>
       <c r="F72">
-        <v>-0.01084633769470902</v>
+        <v>0.01559276082513876</v>
       </c>
       <c r="G72">
-        <v>-0.01292250757936962</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03350334275709999</v>
+      </c>
+      <c r="H72">
+        <v>0.0001801109899035849</v>
+      </c>
+      <c r="I72">
+        <v>0.003954761082116449</v>
+      </c>
+      <c r="J72">
+        <v>0.02428098032619806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2616820456784446</v>
+        <v>-0.2720642044954203</v>
       </c>
       <c r="C73">
-        <v>0.2227279269281455</v>
+        <v>0.1516776063565821</v>
       </c>
       <c r="D73">
-        <v>0.1180429745432673</v>
+        <v>0.01200728896536998</v>
       </c>
       <c r="E73">
-        <v>-0.2426348962383248</v>
+        <v>-0.3159507372521032</v>
       </c>
       <c r="F73">
-        <v>-0.05033502776789246</v>
+        <v>-0.07895488536569352</v>
       </c>
       <c r="G73">
-        <v>0.3427909076830609</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.136831842030121</v>
+      </c>
+      <c r="H73">
+        <v>0.4101962658432972</v>
+      </c>
+      <c r="I73">
+        <v>-0.2499314197748677</v>
+      </c>
+      <c r="J73">
+        <v>0.3175248064053374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1537841341918517</v>
+        <v>-0.1531192366971907</v>
       </c>
       <c r="C74">
-        <v>0.01787790361981593</v>
+        <v>-0.00785981629055695</v>
       </c>
       <c r="D74">
-        <v>0.04309363245190279</v>
+        <v>-0.04760912088417983</v>
       </c>
       <c r="E74">
-        <v>0.0126411853738693</v>
+        <v>0.02594346522474239</v>
       </c>
       <c r="F74">
-        <v>-0.0473256598571625</v>
+        <v>0.001283016595713907</v>
       </c>
       <c r="G74">
-        <v>-0.01278121530345549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01765983917891419</v>
+      </c>
+      <c r="H74">
+        <v>0.02555355111102757</v>
+      </c>
+      <c r="I74">
+        <v>-0.06309610213376747</v>
+      </c>
+      <c r="J74">
+        <v>-0.08176395813089543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2379586983663926</v>
+        <v>-0.2460319090835315</v>
       </c>
       <c r="C75">
-        <v>0.02731676115580977</v>
+        <v>-0.01204644406846265</v>
       </c>
       <c r="D75">
-        <v>0.006722258400199428</v>
+        <v>-0.1049234983676703</v>
       </c>
       <c r="E75">
-        <v>0.1091675391256956</v>
+        <v>0.1115113368172031</v>
       </c>
       <c r="F75">
-        <v>-0.02347181196212734</v>
+        <v>-0.02023569723949857</v>
       </c>
       <c r="G75">
-        <v>-0.0917040039239333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02308029532680085</v>
+      </c>
+      <c r="H75">
+        <v>0.01099068329065424</v>
+      </c>
+      <c r="I75">
+        <v>-0.05216355135694169</v>
+      </c>
+      <c r="J75">
+        <v>-0.1825357192861503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2362968764451768</v>
+        <v>-0.2603904531827202</v>
       </c>
       <c r="C76">
-        <v>0.01785603959597588</v>
+        <v>-0.002821871233959453</v>
       </c>
       <c r="D76">
-        <v>0.05541564040610977</v>
+        <v>-0.1228157199085319</v>
       </c>
       <c r="E76">
-        <v>0.1004201691010113</v>
+        <v>0.1206338343967226</v>
       </c>
       <c r="F76">
-        <v>-0.03331104216318941</v>
+        <v>0.01221729363054719</v>
       </c>
       <c r="G76">
-        <v>-0.04627588767456478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01623314055300066</v>
+      </c>
+      <c r="H76">
+        <v>0.00531592298901597</v>
+      </c>
+      <c r="I76">
+        <v>-0.1029999805148663</v>
+      </c>
+      <c r="J76">
+        <v>-0.1590755694522608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1174636314583588</v>
+        <v>-0.1261465916336947</v>
       </c>
       <c r="C77">
-        <v>-0.01557189761008705</v>
+        <v>-0.04312950446599469</v>
       </c>
       <c r="D77">
-        <v>0.05864121568656758</v>
+        <v>0.05424435584766791</v>
       </c>
       <c r="E77">
-        <v>-0.1817998505533436</v>
+        <v>-0.1822953082018303</v>
       </c>
       <c r="F77">
-        <v>-0.01170876932376536</v>
+        <v>0.0542507114913959</v>
       </c>
       <c r="G77">
-        <v>-0.08533903017173269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02074285918254068</v>
+      </c>
+      <c r="H77">
+        <v>-0.1420259400027696</v>
+      </c>
+      <c r="I77">
+        <v>0.1495791274911764</v>
+      </c>
+      <c r="J77">
+        <v>-0.111976374617508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09400457412688425</v>
+        <v>-0.0847602362871412</v>
       </c>
       <c r="C78">
-        <v>-0.02769919377555211</v>
+        <v>-0.05288714102161972</v>
       </c>
       <c r="D78">
-        <v>0.02052849414174967</v>
+        <v>0.001303836254862931</v>
       </c>
       <c r="E78">
-        <v>-0.09484726046944003</v>
+        <v>-0.0870798072689931</v>
       </c>
       <c r="F78">
-        <v>0.00226002723300533</v>
+        <v>0.03660960304587997</v>
       </c>
       <c r="G78">
-        <v>0.03133369102000295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01316489847736517</v>
+      </c>
+      <c r="H78">
+        <v>-0.01543938038976144</v>
+      </c>
+      <c r="I78">
+        <v>0.02339596505330139</v>
+      </c>
+      <c r="J78">
+        <v>-0.02192087850303681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07675480360424129</v>
+        <v>-0.08829820340532309</v>
       </c>
       <c r="C80">
-        <v>0.003086361363012882</v>
+        <v>0.05348593378282827</v>
       </c>
       <c r="D80">
-        <v>-0.03724046193395108</v>
+        <v>0.1642047756520916</v>
       </c>
       <c r="E80">
-        <v>0.01212923090713464</v>
+        <v>0.1459046522945182</v>
       </c>
       <c r="F80">
-        <v>-0.0001564934831653342</v>
+        <v>0.9427297806485387</v>
       </c>
       <c r="G80">
-        <v>-0.3512708746161908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02089673302566961</v>
+      </c>
+      <c r="H80">
+        <v>0.1426623758833626</v>
+      </c>
+      <c r="I80">
+        <v>-0.01854028082967283</v>
+      </c>
+      <c r="J80">
+        <v>0.1120295288741219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1700299729294989</v>
+        <v>-0.1771274766095264</v>
       </c>
       <c r="C81">
-        <v>0.01851404626822208</v>
+        <v>-0.001366541425453178</v>
       </c>
       <c r="D81">
-        <v>0.0007368852804187528</v>
+        <v>-0.09126702283860524</v>
       </c>
       <c r="E81">
-        <v>0.1300442925877034</v>
+        <v>0.1384420767574532</v>
       </c>
       <c r="F81">
-        <v>-0.05051534185324916</v>
+        <v>-0.02086493445824294</v>
       </c>
       <c r="G81">
-        <v>-0.06831574543421665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01341185132979233</v>
+      </c>
+      <c r="H81">
+        <v>0.01067247078368632</v>
+      </c>
+      <c r="I81">
+        <v>-0.05829756999026971</v>
+      </c>
+      <c r="J81">
+        <v>-0.1383048153835865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.07474195764147074</v>
+        <v>-0.06459406929963743</v>
       </c>
       <c r="C83">
-        <v>-0.02442442043032995</v>
+        <v>-0.03595091916451489</v>
       </c>
       <c r="D83">
-        <v>-0.0388359444750159</v>
+        <v>0.04619220203573524</v>
       </c>
       <c r="E83">
-        <v>-0.1012535814257207</v>
+        <v>-0.07045620605634646</v>
       </c>
       <c r="F83">
-        <v>0.07239820282607015</v>
+        <v>-0.008421093715565238</v>
       </c>
       <c r="G83">
-        <v>-0.05407748498674419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04783294014446991</v>
+      </c>
+      <c r="H83">
+        <v>-0.04615087400036049</v>
+      </c>
+      <c r="I83">
+        <v>-0.008120678839663262</v>
+      </c>
+      <c r="J83">
+        <v>-0.08516013598640744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2494143609896976</v>
+        <v>-0.258734018050546</v>
       </c>
       <c r="C85">
-        <v>-0.03585866706728802</v>
+        <v>-0.0492033943076428</v>
       </c>
       <c r="D85">
-        <v>-0.01100447167461682</v>
+        <v>-0.08952342701019525</v>
       </c>
       <c r="E85">
-        <v>0.1131801034106427</v>
+        <v>0.1394050803721451</v>
       </c>
       <c r="F85">
-        <v>-0.00749244070162017</v>
+        <v>0.01503819941994683</v>
       </c>
       <c r="G85">
-        <v>-0.1258259705187562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02110588900639655</v>
+      </c>
+      <c r="H85">
+        <v>-0.02734374657083339</v>
+      </c>
+      <c r="I85">
+        <v>-0.07664779971947228</v>
+      </c>
+      <c r="J85">
+        <v>-0.1967653070171945</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04516481957161317</v>
+        <v>-0.02806896121019239</v>
       </c>
       <c r="C86">
-        <v>-0.03173854053431024</v>
+        <v>-0.04380467315350658</v>
       </c>
       <c r="D86">
-        <v>0.03714548720644786</v>
+        <v>-0.005483848219106953</v>
       </c>
       <c r="E86">
-        <v>-0.05116415797111038</v>
+        <v>-0.06377027016062846</v>
       </c>
       <c r="F86">
-        <v>-0.004155559082507356</v>
+        <v>0.03140532155160062</v>
       </c>
       <c r="G86">
-        <v>0.009201411810666433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.008311355265345559</v>
+      </c>
+      <c r="H86">
+        <v>-0.02968991792609045</v>
+      </c>
+      <c r="I86">
+        <v>0.0799285665759539</v>
+      </c>
+      <c r="J86">
+        <v>0.008561165150316335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03170258025387439</v>
+        <v>-0.03900491344521913</v>
       </c>
       <c r="C87">
-        <v>0.05158505765944872</v>
+        <v>0.02447427432716269</v>
       </c>
       <c r="D87">
-        <v>0.03491308394799959</v>
+        <v>-0.0007382294775937354</v>
       </c>
       <c r="E87">
-        <v>-0.04971078881772684</v>
+        <v>-0.0836634797838967</v>
       </c>
       <c r="F87">
-        <v>0.01448924266325277</v>
+        <v>0.01584842938487889</v>
       </c>
       <c r="G87">
-        <v>0.1767472024208981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006107219537814381</v>
+      </c>
+      <c r="H87">
+        <v>0.01747709819730315</v>
+      </c>
+      <c r="I87">
+        <v>0.03427325259767915</v>
+      </c>
+      <c r="J87">
+        <v>0.1103425282430292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03083228841033986</v>
+        <v>-0.01940593490231407</v>
       </c>
       <c r="C88">
-        <v>-0.02493894482116771</v>
+        <v>-0.01683709712411806</v>
       </c>
       <c r="D88">
-        <v>0.01512588768658338</v>
+        <v>-0.01202250621768348</v>
       </c>
       <c r="E88">
-        <v>-0.004203611882837841</v>
+        <v>-0.009587236251946756</v>
       </c>
       <c r="F88">
-        <v>-0.003291294604836599</v>
+        <v>0.02092020437462235</v>
       </c>
       <c r="G88">
-        <v>-0.04454825365118937</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02911140769559688</v>
+      </c>
+      <c r="H88">
+        <v>-0.04759759987676391</v>
+      </c>
+      <c r="I88">
+        <v>-0.004068002766406965</v>
+      </c>
+      <c r="J88">
+        <v>0.01999779121484005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02727716225059757</v>
+        <v>-0.04130971572306093</v>
       </c>
       <c r="C89">
-        <v>0.4365043489240674</v>
+        <v>0.40095005429959</v>
       </c>
       <c r="D89">
-        <v>-0.07825867380688999</v>
+        <v>0.05707681557086608</v>
       </c>
       <c r="E89">
-        <v>-0.03824967678049511</v>
+        <v>-0.04849287090357218</v>
       </c>
       <c r="F89">
-        <v>0.0446611080870724</v>
+        <v>-0.03452708765350907</v>
       </c>
       <c r="G89">
-        <v>-0.02979496761502206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07280179679529117</v>
+      </c>
+      <c r="H89">
+        <v>-0.01220717302339449</v>
+      </c>
+      <c r="I89">
+        <v>0.249685826597849</v>
+      </c>
+      <c r="J89">
+        <v>-0.1670370602560711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.03335451144869359</v>
+        <v>-0.0203875745587728</v>
       </c>
       <c r="C90">
-        <v>0.3034260797175598</v>
+        <v>0.3266668023584597</v>
       </c>
       <c r="D90">
-        <v>0.003631530864490813</v>
+        <v>0.03284098646407364</v>
       </c>
       <c r="E90">
-        <v>-0.04233855081987737</v>
+        <v>-0.03773903533073356</v>
       </c>
       <c r="F90">
-        <v>-0.009185135147726868</v>
+        <v>0.008101409443204161</v>
       </c>
       <c r="G90">
-        <v>0.06194483494498616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01051984771543303</v>
+      </c>
+      <c r="H90">
+        <v>0.04641826740652255</v>
+      </c>
+      <c r="I90">
+        <v>0.1737352037866175</v>
+      </c>
+      <c r="J90">
+        <v>-0.1152251177740132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3249006315062353</v>
+        <v>-0.3274304521269185</v>
       </c>
       <c r="C91">
-        <v>0.01170788754488237</v>
+        <v>-0.01891510454603607</v>
       </c>
       <c r="D91">
-        <v>-0.06027218049277933</v>
+        <v>-0.1065751963669931</v>
       </c>
       <c r="E91">
-        <v>0.2397502316316221</v>
+        <v>0.259307894675505</v>
       </c>
       <c r="F91">
-        <v>-0.07148530461622744</v>
+        <v>-0.02696547960995973</v>
       </c>
       <c r="G91">
-        <v>-0.3008357939788031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02402546503494458</v>
+      </c>
+      <c r="H91">
+        <v>-0.006054782065378555</v>
+      </c>
+      <c r="I91">
+        <v>-0.1392892046496383</v>
+      </c>
+      <c r="J91">
+        <v>-0.3539722428934109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03494609239953371</v>
+        <v>-0.06606194369663357</v>
       </c>
       <c r="C92">
-        <v>0.458681837799774</v>
+        <v>0.4798375220665753</v>
       </c>
       <c r="D92">
-        <v>-0.2169979847088807</v>
+        <v>0.07888641128677729</v>
       </c>
       <c r="E92">
-        <v>0.04150530616027277</v>
+        <v>0.1388035751307826</v>
       </c>
       <c r="F92">
-        <v>-0.04867306107796115</v>
+        <v>-0.01365526694508775</v>
       </c>
       <c r="G92">
-        <v>-0.4693574556035073</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04237398496055366</v>
+      </c>
+      <c r="H92">
+        <v>-0.5856888487363522</v>
+      </c>
+      <c r="I92">
+        <v>-0.5137375060558674</v>
+      </c>
+      <c r="J92">
+        <v>0.287639764973557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03492638748303502</v>
+        <v>-0.02585955161903309</v>
       </c>
       <c r="C93">
-        <v>0.3684849564450108</v>
+        <v>0.4057774869800317</v>
       </c>
       <c r="D93">
-        <v>-0.07980035239669996</v>
+        <v>0.06407220463153973</v>
       </c>
       <c r="E93">
-        <v>-0.0006349501940795148</v>
+        <v>0.02219241959485707</v>
       </c>
       <c r="F93">
-        <v>0.002099151451502003</v>
+        <v>-0.01148595897835935</v>
       </c>
       <c r="G93">
-        <v>-0.03618960660170681</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03928656582128151</v>
+      </c>
+      <c r="H93">
+        <v>0.05422412195433822</v>
+      </c>
+      <c r="I93">
+        <v>0.1646780598437954</v>
+      </c>
+      <c r="J93">
+        <v>-0.1581695597135917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3253186980559671</v>
+        <v>-0.332375427385311</v>
       </c>
       <c r="C94">
-        <v>0.00694519958954824</v>
+        <v>-0.01664040897910654</v>
       </c>
       <c r="D94">
-        <v>-0.2502369970907736</v>
+        <v>-0.165405718298578</v>
       </c>
       <c r="E94">
-        <v>0.4881130468434467</v>
+        <v>0.4182678967691571</v>
       </c>
       <c r="F94">
-        <v>-0.3518977556093927</v>
+        <v>-0.1008770602761982</v>
       </c>
       <c r="G94">
-        <v>0.3550458782326021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1956720459140516</v>
+      </c>
+      <c r="H94">
+        <v>-0.02424582829839559</v>
+      </c>
+      <c r="I94">
+        <v>0.5044464907317985</v>
+      </c>
+      <c r="J94">
+        <v>0.533402918298765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1879927990555274</v>
+        <v>-0.1433589923685307</v>
       </c>
       <c r="C95">
-        <v>0.0512451812656147</v>
+        <v>-0.04995492782713252</v>
       </c>
       <c r="D95">
-        <v>-0.01627607839252353</v>
+        <v>-0.03398040320627175</v>
       </c>
       <c r="E95">
-        <v>0.2614963865376747</v>
+        <v>0.009132117833585265</v>
       </c>
       <c r="F95">
-        <v>0.8993167955779846</v>
+        <v>-0.06505364234713984</v>
       </c>
       <c r="G95">
-        <v>0.08213962119585125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.932109816791608</v>
+      </c>
+      <c r="H95">
+        <v>0.08015395475100552</v>
+      </c>
+      <c r="I95">
+        <v>0.053992644958754</v>
+      </c>
+      <c r="J95">
+        <v>0.2126653403023872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2024424758830072</v>
+        <v>-0.2052393177128077</v>
       </c>
       <c r="C98">
-        <v>0.1413578871067755</v>
+        <v>0.09316156739218934</v>
       </c>
       <c r="D98">
-        <v>0.04463582964505792</v>
+        <v>0.01374961089418189</v>
       </c>
       <c r="E98">
-        <v>-0.1009939300355063</v>
+        <v>-0.1643496452352768</v>
       </c>
       <c r="F98">
-        <v>-0.0005356700688247528</v>
+        <v>-0.07660852862342869</v>
       </c>
       <c r="G98">
-        <v>0.2092737002903849</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06124990624944559</v>
+      </c>
+      <c r="H98">
+        <v>0.2972815075133081</v>
+      </c>
+      <c r="I98">
+        <v>-0.2024531382770433</v>
+      </c>
+      <c r="J98">
+        <v>0.1092389005900495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01785901865266734</v>
+        <v>-0.01247312633041245</v>
       </c>
       <c r="C101">
-        <v>-0.01998482162396689</v>
+        <v>-0.03335416306293485</v>
       </c>
       <c r="D101">
-        <v>0.03197849979306486</v>
+        <v>-0.02155416556491878</v>
       </c>
       <c r="E101">
-        <v>-0.03066741982263936</v>
+        <v>-0.06299810811096333</v>
       </c>
       <c r="F101">
-        <v>0.002659760914644902</v>
+        <v>0.03015002665079413</v>
       </c>
       <c r="G101">
-        <v>-0.03091375322285888</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001402644837788114</v>
+      </c>
+      <c r="H101">
+        <v>-0.1176291777550715</v>
+      </c>
+      <c r="I101">
+        <v>0.008891901305648582</v>
+      </c>
+      <c r="J101">
+        <v>0.01304241944889393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1248241264858402</v>
+        <v>-0.121604930802848</v>
       </c>
       <c r="C102">
-        <v>0.01026056642674883</v>
+        <v>-0.02123110986236812</v>
       </c>
       <c r="D102">
-        <v>0.009880812050714671</v>
+        <v>-0.05481779673424791</v>
       </c>
       <c r="E102">
-        <v>0.08220843863499883</v>
+        <v>0.08079847168109491</v>
       </c>
       <c r="F102">
-        <v>0.02388071206961733</v>
+        <v>0.004028832327230369</v>
       </c>
       <c r="G102">
-        <v>-0.01864488309759988</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04134222243519763</v>
+      </c>
+      <c r="H102">
+        <v>0.0041094095941292</v>
+      </c>
+      <c r="I102">
+        <v>0.003974127783099821</v>
+      </c>
+      <c r="J102">
+        <v>-0.06501417954625503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01497362695416415</v>
+        <v>-0.0235500468481105</v>
       </c>
       <c r="C103">
-        <v>-0.00462056233129088</v>
+        <v>-0.0019172891993484</v>
       </c>
       <c r="D103">
-        <v>-0.001474013606741894</v>
+        <v>-0.01406116315883164</v>
       </c>
       <c r="E103">
-        <v>0.02630575078169306</v>
+        <v>0.01335037625928615</v>
       </c>
       <c r="F103">
-        <v>-0.008729748163661488</v>
+        <v>0.003253434759441437</v>
       </c>
       <c r="G103">
-        <v>0.02417236642128444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01443771119415376</v>
+      </c>
+      <c r="H103">
+        <v>-0.004891534950452891</v>
+      </c>
+      <c r="I103">
+        <v>0.03361161218724926</v>
+      </c>
+      <c r="J103">
+        <v>-0.00737854336895151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
